--- a/19-Party System 队伍系统.xlsx
+++ b/19-Party System 队伍系统.xlsx
@@ -4,19 +4,137 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="插件指令" sheetId="1" r:id="rId1"/>
-    <sheet name="插件参数" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="介绍" sheetId="3" r:id="rId1"/>
+    <sheet name="插件指令" sheetId="1" r:id="rId2"/>
+    <sheet name="插件参数" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>刘鹏</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Actor ID(s): 选择要添加到临时队伍角色，直到临时队伍解散。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>JS: Actor ID(s):
+ 使用JavaScript确定在解散之前将哪些角色添加到临时队伍中</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="149">
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>RPG Maker MZ仅允许游戏项目在主菜单中切换团队成员，仅此而已。</t>
+  </si>
+  <si>
+    <t>没有固有的功能来锁定队员，使队员成为必需，和/或让玩家在战斗中切换队员。</t>
+  </si>
+  <si>
+    <t>这个插件将添加所有这些功能，以及一个用于切换队员的专用场景。队伍转换将允许队伍成员被删除、交换和排序。</t>
+  </si>
+  <si>
+    <t>通过使用插件命令，还可以锁定和/或要求参与方成员在场。</t>
+  </si>
+  <si>
+    <t>使用VisuStella MZ Battle Core的用户还可以访问此插件中的其他功能。</t>
+  </si>
+  <si>
+    <t>这些功能为玩家提供了在战斗中期切换整个队伍阵容和/或切换单个队伍成员的功能。</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>·专用于队伍管理的自定义场景。</t>
+  </si>
+  <si>
+    <t>·更改可以参加战斗的队员的最大人数。</t>
+  </si>
+  <si>
+    <t>·锁定队伍成员的插件命令。</t>
+  </si>
+  <si>
+    <t>·使某些队员成为必需的插件命令。</t>
+  </si>
+  <si>
+    <t>·添加了战斗核心功能，可以在战斗中切换队员。</t>
+  </si>
+  <si>
+    <t>·这是以一次改变整个队伍的形式出现的。</t>
+  </si>
+  <si>
+    <t>·或者一次更换一个队员。</t>
+  </si>
+  <si>
+    <t>重大改变</t>
+  </si>
+  <si>
+    <t>主菜单队伍命令</t>
+  </si>
+  <si>
+    <t>战斗成员队列</t>
+  </si>
+  <si>
+    <t>编队变更OK功能</t>
+  </si>
+  <si>
+    <t>临时队伍</t>
+  </si>
+  <si>
+    <t>临时队伍是非常具体的队伍，它将覆盖玩家设置为队伍的任何内容。这些人可能包括现在的队员，甚至还没有加入的角色。
+临时队伍不能改变，上述队员的位置也不能改变。</t>
+  </si>
+  <si>
+    <t>当临时队伍出现时，涉及更换队伍成员的菜单和战斗命令将被禁用。</t>
+  </si>
+  <si>
+    <t>一旦临时队伍解散，玩家选择的队伍将再次可用，以及所有改变队员及其位置的功能。</t>
+  </si>
   <si>
     <t>队伍</t>
   </si>
@@ -216,6 +334,66 @@
 否则无法退出界面</t>
   </si>
   <si>
+    <t>Temporary Parties Plugin Commands  临时队伍</t>
+  </si>
+  <si>
+    <t>Temp: Create Temporary Party (Normal)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">创建一个由特定角色组成的临时队伍。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能在战斗中使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>Temp: Create Temporary Party (JS)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">创建一个用JavaScript选择的临时队伍。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能在战斗中使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>Temp: Disband Temporary Party</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">解散临时队伍。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能在战斗中使用。</t>
+    </r>
+  </si>
+  <si>
     <t>General Settings</t>
   </si>
   <si>
@@ -544,14 +722,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,31 +773,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,6 +797,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -648,41 +845,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,12 +898,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -752,6 +938,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -768,49 +966,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,121 +1104,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,21 +1157,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1006,6 +1189,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,152 +1262,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1248,6 +1446,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1258,52 +1465,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1691,98 +1898,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="1"/>
-    <col min="2" max="2" width="39.625" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="108.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="12" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:2">
-      <c r="A4" s="12" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:3">
-      <c r="A5" s="12" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:3">
-      <c r="A6" s="12" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="54" spans="1:3">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="1:2">
-      <c r="A8" s="12" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:2">
-      <c r="A9" s="12" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="2:2">
+      <c r="B26" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1795,9 +2035,143 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:1">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:3">
+      <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:2">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:1">
+      <c r="A11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1810,29 +2184,29 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -1840,29 +2214,29 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1">
         <v>195</v>
@@ -1870,10 +2244,10 @@
     </row>
     <row r="8" ht="27" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>87</v>
@@ -1881,44 +2255,44 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1">
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C12"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
@@ -1926,10 +2300,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1937,21 +2311,21 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:4">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D17" s="9" t="b">
         <v>0</v>
@@ -1959,10 +2333,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1970,73 +2344,73 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="3:3">
@@ -2044,30 +2418,30 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C28"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>69</v>
+        <v>97</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -2075,63 +2449,63 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C32"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="3:3">
@@ -2139,79 +2513,79 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" ht="18.75" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C47" s="1">
         <v>192</v>
@@ -2219,28 +2593,28 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2248,10 +2622,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -2259,28 +2633,28 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" ht="27" spans="1:1">
       <c r="A56" s="6" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2289,21 +2663,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>